--- a/public/format/FormatExcel.xlsx
+++ b/public/format/FormatExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sertifikat\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881C512D-E7AD-4ACD-BDA9-D2EFF5217057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B293B62D-D2B3-421D-8862-45C048F5C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -39,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,19 +376,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -394,6 +401,9 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
